--- a/HOLPA data post-processing.xlsx
+++ b/HOLPA data post-processing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar.sharepoint.com/sites/OneCGIAR-AgroecologyInitiativeImplementationTeam/Shared Documents/WP2 Coordination/Task2_Framework/HOLPA implementation/HOLPA_data_use/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFC89B92-EAE8-4493-9053-229FF26C980D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E21124F4-06F9-4CCE-8AC0-C875E0C6A99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="10" activeTab="10" xr2:uid="{8C955DF1-CC84-4B4A-B3E4-0D19DD227289}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="13" activeTab="13" xr2:uid="{8C955DF1-CC84-4B4A-B3E4-0D19DD227289}"/>
   </bookViews>
   <sheets>
     <sheet name="Priority tasks" sheetId="3" r:id="rId1"/>
@@ -493,8 +493,26 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0C3383C0-F02C-4637-8CD4-DC74F6DFB058}</author>
+  </authors>
+  <commentList>
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{0C3383C0-F02C-4637-8CD4-DC74F6DFB058}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I put this number</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="743">
   <si>
     <t>DATE: 18 July 2024</t>
   </si>
@@ -3217,6 +3235,9 @@
   </si>
   <si>
     <t>Gatien Falconnier 11/10/2040</t>
+  </si>
+  <si>
+    <t>https://www.helgilibrary.com/indicators/peaches-and-nectarines-yield/zimbabwe/?utm_source=chatgpt.com</t>
   </si>
   <si>
     <t>Gatien Falconnier 11/10/2041</t>
@@ -4695,6 +4716,14 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H20" dT="2025-07-29T08:58:51.59" personId="{B5478C30-93B5-4CEE-A9DB-767318B03F0F}" id="{0C3383C0-F02C-4637-8CD4-DC74F6DFB058}">
+    <text>I put this number</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7972FEE1-C99E-46C7-A51B-0025A8619F32}">
   <dimension ref="A1:E13"/>
@@ -5931,9 +5960,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
@@ -13847,11 +13874,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710CF3E9-0D10-46D7-B3E2-75CEF6F7984B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710CF3E9-0D10-46D7-B3E2-75CEF6F7984B}">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -13867,7 +13894,7 @@
     <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="57.95">
+    <row r="1" spans="1:23" ht="57.75">
       <c r="A1" s="37" t="s">
         <v>336</v>
       </c>
@@ -13951,7 +13978,7 @@
       <c r="E2" s="36">
         <v>49421.03</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="77" t="s">
         <v>314</v>
       </c>
       <c r="G2">
@@ -14804,7 +14831,7 @@
       <c r="E15" s="36">
         <v>55598.66</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="77" t="s">
         <v>314</v>
       </c>
       <c r="G15">
@@ -15102,7 +15129,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14.45">
+    <row r="20" spans="1:23">
       <c r="A20" s="36" t="s">
         <v>432</v>
       </c>
@@ -15115,17 +15142,20 @@
       <c r="E20" s="36">
         <v>2471.0520000000001</v>
       </c>
-      <c r="F20" t="s">
-        <v>314</v>
+      <c r="F20">
+        <v>5445.8</v>
       </c>
       <c r="G20" t="s">
         <v>314</v>
       </c>
+      <c r="H20" s="55" t="s">
+        <v>700</v>
+      </c>
       <c r="J20" t="s">
         <v>314</v>
       </c>
       <c r="L20" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M20">
         <v>13569</v>
@@ -15136,6 +15166,9 @@
       <c r="O20">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="P20">
+        <v>5445.8</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="2"/>
@@ -15163,7 +15196,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.45">
+    <row r="21" spans="1:23">
       <c r="A21" s="36" t="s">
         <v>637</v>
       </c>
@@ -15183,13 +15216,13 @@
         <v>90000</v>
       </c>
       <c r="H21" s="93" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K21">
         <v>750</v>
       </c>
       <c r="L21" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M21">
         <v>13569</v>
@@ -15229,7 +15262,7 @@
     </row>
     <row r="22" spans="1:23" ht="14.45">
       <c r="A22" s="36" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>220</v>
@@ -15247,7 +15280,7 @@
         <v>90000</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="J22">
         <v>1260</v>
@@ -15256,7 +15289,7 @@
         <v>1260</v>
       </c>
       <c r="L22" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M22">
         <v>13569</v>
@@ -15296,7 +15329,7 @@
     </row>
     <row r="23" spans="1:23" ht="14.45">
       <c r="A23" s="36" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C23" s="36" t="s">
         <v>220</v>
@@ -15314,13 +15347,13 @@
         <v>314</v>
       </c>
       <c r="H23" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J23">
         <v>550</v>
       </c>
       <c r="L23" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M23">
         <v>13569</v>
@@ -15382,7 +15415,7 @@
         <v>314</v>
       </c>
       <c r="H24" s="93" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="J24">
         <v>200</v>
@@ -15391,7 +15424,7 @@
         <v>200</v>
       </c>
       <c r="L24" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M24">
         <v>13569</v>
@@ -15435,7 +15468,7 @@
     </row>
     <row r="25" spans="1:23" ht="14.45">
       <c r="A25" s="36" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>220</v>
@@ -15453,13 +15486,13 @@
         <v>314</v>
       </c>
       <c r="H25" s="93" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J25" t="s">
         <v>314</v>
       </c>
       <c r="L25" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M25">
         <v>13569</v>
@@ -15503,7 +15536,7 @@
     </row>
     <row r="26" spans="1:23" ht="14.45">
       <c r="A26" s="36" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>683</v>
@@ -15521,13 +15554,13 @@
         <v>314</v>
       </c>
       <c r="H26" s="93" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J26">
         <v>350</v>
       </c>
       <c r="L26" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M26">
         <v>13569</v>
@@ -15571,7 +15604,7 @@
     </row>
     <row r="27" spans="1:23" ht="14.45">
       <c r="A27" s="36" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>220</v>
@@ -15589,13 +15622,13 @@
         <v>314</v>
       </c>
       <c r="H27" s="93" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J27">
         <v>350</v>
       </c>
       <c r="L27" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M27">
         <v>13569</v>
@@ -15639,7 +15672,7 @@
     </row>
     <row r="28" spans="1:23" ht="14.45">
       <c r="A28" s="36" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>220</v>
@@ -15657,13 +15690,13 @@
         <v>314</v>
       </c>
       <c r="H28" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J28">
         <v>500</v>
       </c>
       <c r="L28" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M28">
         <v>13569</v>
@@ -15725,13 +15758,13 @@
         <v>314</v>
       </c>
       <c r="H29" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J29">
         <v>550</v>
       </c>
       <c r="L29" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M29">
         <v>13569</v>
@@ -15775,7 +15808,7 @@
     </row>
     <row r="30" spans="1:23" ht="14.45">
       <c r="A30" s="36" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>220</v>
@@ -15793,13 +15826,13 @@
         <v>314</v>
       </c>
       <c r="H30" s="93" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J30">
         <v>250</v>
       </c>
       <c r="L30" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M30">
         <v>13569</v>
@@ -15843,7 +15876,7 @@
     </row>
     <row r="31" spans="1:23" ht="14.45">
       <c r="A31" s="36" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C31" s="36" t="s">
         <v>220</v>
@@ -15861,13 +15894,13 @@
         <v>314</v>
       </c>
       <c r="H31" s="93" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="L31" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M31">
         <v>13569</v>
@@ -15911,7 +15944,7 @@
     </row>
     <row r="32" spans="1:23" ht="14.45">
       <c r="A32" s="36" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C32" s="36" t="s">
         <v>220</v>
@@ -15929,13 +15962,13 @@
         <v>314</v>
       </c>
       <c r="H32" s="93" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J32">
         <v>300</v>
       </c>
       <c r="L32" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M32">
         <v>13569</v>
@@ -15997,13 +16030,13 @@
         <v>314</v>
       </c>
       <c r="H33" s="93" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J33">
         <v>1000</v>
       </c>
       <c r="L33" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M33">
         <v>13569</v>
@@ -16047,7 +16080,7 @@
     </row>
     <row r="34" spans="1:23" ht="14.45">
       <c r="A34" s="36" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C34" s="36" t="s">
         <v>220</v>
@@ -16065,13 +16098,13 @@
         <v>314</v>
       </c>
       <c r="H34" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J34">
         <v>600</v>
       </c>
       <c r="L34" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="M34">
         <v>13569</v>
@@ -16133,13 +16166,13 @@
         <v>78500</v>
       </c>
       <c r="H35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K35">
         <v>750</v>
       </c>
       <c r="L35" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M35">
         <v>13569</v>
@@ -16179,7 +16212,7 @@
     </row>
     <row r="36" spans="1:23" ht="14.45">
       <c r="A36" s="36" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C36" s="36" t="s">
         <v>220</v>
@@ -16197,13 +16230,13 @@
         <v>314</v>
       </c>
       <c r="H36" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="L36" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M36">
         <v>13569</v>
@@ -16266,52 +16299,54 @@
     <hyperlink ref="H15" r:id="rId12" xr:uid="{41E167E8-55D4-48EC-A871-06CE1BE2EA96}"/>
     <hyperlink ref="H17" r:id="rId13" xr:uid="{EF45BA79-B721-49A8-AC57-974B1DF01A31}"/>
     <hyperlink ref="H19" r:id="rId14" xr:uid="{2037C7CD-DF3D-489F-827C-A425FB6CD3F8}"/>
-    <hyperlink ref="H21" r:id="rId15" xr:uid="{BB8BA70B-D8E6-4D3D-8D98-12E59783563F}"/>
-    <hyperlink ref="H12" r:id="rId16" xr:uid="{91E8D72D-D175-46F0-950B-C4D8BE04BC11}"/>
-    <hyperlink ref="H11" r:id="rId17" xr:uid="{8189A0E3-2406-482A-8083-D95DA8D37878}"/>
-    <hyperlink ref="H24" r:id="rId18" xr:uid="{426EB158-114A-4F5B-B6BF-426133EB75FC}"/>
-    <hyperlink ref="H25" r:id="rId19" xr:uid="{0F511DF6-55B3-4F3B-89D4-4AF03088CA6B}"/>
-    <hyperlink ref="H26" r:id="rId20" xr:uid="{8EEE0F7F-B306-4F01-94E9-75FDFB04C726}"/>
-    <hyperlink ref="H27" r:id="rId21" xr:uid="{5A57A270-510D-40EB-BFF3-819CBECB3501}"/>
-    <hyperlink ref="N2" r:id="rId22" xr:uid="{9A6B1880-CDF5-42D9-A0F2-5656716A4095}"/>
-    <hyperlink ref="N3:N36" r:id="rId23" display="https://data.worldbank.org/indicator/NY.GNP.PCAP.KN?locations=ZW" xr:uid="{5E325D1E-3F02-497F-8A10-F901F4ACAFB6}"/>
-    <hyperlink ref="W2" r:id="rId24" xr:uid="{D5A7BB3F-2C9C-4BC6-9FBB-C48FE4C3F2EE}"/>
-    <hyperlink ref="W3" r:id="rId25" xr:uid="{D502556B-1BFB-4174-A387-C02BEC6B8A43}"/>
-    <hyperlink ref="W4" r:id="rId26" xr:uid="{C46493E4-2F05-4851-849C-3E9A5A00DEE8}"/>
-    <hyperlink ref="W6" r:id="rId27" xr:uid="{EEC455DA-0712-47A7-B265-C3C81D3D15FA}"/>
-    <hyperlink ref="W8" r:id="rId28" xr:uid="{E12A8311-9097-4531-BF27-3E6388817E38}"/>
-    <hyperlink ref="W10" r:id="rId29" xr:uid="{7ACADCED-E3C2-45BC-B444-520898554143}"/>
-    <hyperlink ref="W12" r:id="rId30" xr:uid="{E10F9D78-6885-49A8-A019-68CE2B48984C}"/>
-    <hyperlink ref="W14" r:id="rId31" xr:uid="{E8F4C283-578A-4DB7-AF93-4833B3E6BF24}"/>
-    <hyperlink ref="W16" r:id="rId32" xr:uid="{5E8041FC-1960-4537-8843-9D073375D3D4}"/>
-    <hyperlink ref="W18" r:id="rId33" xr:uid="{01DB8899-5F5E-4389-9DF8-2530FF488EB8}"/>
-    <hyperlink ref="W20" r:id="rId34" xr:uid="{35182ED0-AE40-4C52-BE5F-A1EC7ECBD5A1}"/>
-    <hyperlink ref="W22" r:id="rId35" xr:uid="{DAB9A1B3-8166-4ED5-B553-23FE907A55C5}"/>
-    <hyperlink ref="W24" r:id="rId36" xr:uid="{72C444EA-09E2-4940-8C47-40FC43B7D008}"/>
-    <hyperlink ref="W26" r:id="rId37" xr:uid="{10C81D2D-9887-4122-B117-451D87EB91A1}"/>
-    <hyperlink ref="W28" r:id="rId38" xr:uid="{3CD4569F-D195-4F8A-B8BD-186B7ED1CFD2}"/>
-    <hyperlink ref="W30" r:id="rId39" xr:uid="{E18AEC58-5AD1-4374-B876-E86F736078D8}"/>
-    <hyperlink ref="W32" r:id="rId40" xr:uid="{FAAEB2CC-01E8-4F96-87F1-ECB15FC44EE2}"/>
-    <hyperlink ref="W34" r:id="rId41" xr:uid="{4C306D6C-7809-4582-9035-2C66FC3EB7E1}"/>
-    <hyperlink ref="W36" r:id="rId42" xr:uid="{7C689125-8DD9-4129-91BA-FA9D6737D990}"/>
-    <hyperlink ref="W5" r:id="rId43" xr:uid="{630B6D23-07D7-48FC-B3F4-F46176C29FC8}"/>
-    <hyperlink ref="W7" r:id="rId44" xr:uid="{1E5531C0-F05A-48B7-B0BA-3F11C97A44C1}"/>
-    <hyperlink ref="W9" r:id="rId45" xr:uid="{655D3A5B-98B0-472E-BD94-CC4BBA687184}"/>
-    <hyperlink ref="W11" r:id="rId46" xr:uid="{D5A41990-AC8D-4B3D-A773-7FBBC99E37B3}"/>
-    <hyperlink ref="W13" r:id="rId47" xr:uid="{2DCB4906-D67A-4ADF-BFD7-B86424CB4F16}"/>
-    <hyperlink ref="W15" r:id="rId48" xr:uid="{5B4A345C-29ED-44C4-973F-B850CABD1BB3}"/>
-    <hyperlink ref="W17" r:id="rId49" xr:uid="{24220FC2-6BE0-48FF-9787-33F594015130}"/>
-    <hyperlink ref="W19" r:id="rId50" xr:uid="{4BDC5DE7-08E2-444C-BAED-B45D9F7B0B52}"/>
-    <hyperlink ref="W21" r:id="rId51" xr:uid="{B1706383-DFB4-4804-B462-99E9462BC330}"/>
-    <hyperlink ref="W23" r:id="rId52" xr:uid="{7AA3BC09-42FB-4226-A566-174155958EF3}"/>
-    <hyperlink ref="W25" r:id="rId53" xr:uid="{D216F0E7-1A32-4C6E-809C-1C3CBACEFA31}"/>
-    <hyperlink ref="W27" r:id="rId54" xr:uid="{26AB0DFD-3269-4132-8929-C25D7F839389}"/>
-    <hyperlink ref="W29" r:id="rId55" xr:uid="{F93F589E-ED59-430F-80B8-D265A66AC6EB}"/>
-    <hyperlink ref="W31" r:id="rId56" xr:uid="{0E24EEF8-2022-44BB-BF82-E1A7B338A053}"/>
-    <hyperlink ref="W33" r:id="rId57" xr:uid="{D8BA0E1C-398A-4199-8A2A-CA9D004E51DE}"/>
-    <hyperlink ref="W35" r:id="rId58" xr:uid="{44A9BFB6-EFDB-4601-98DA-472E81A9C94F}"/>
+    <hyperlink ref="H12" r:id="rId15" xr:uid="{91E8D72D-D175-46F0-950B-C4D8BE04BC11}"/>
+    <hyperlink ref="H11" r:id="rId16" xr:uid="{8189A0E3-2406-482A-8083-D95DA8D37878}"/>
+    <hyperlink ref="H24" r:id="rId17" xr:uid="{426EB158-114A-4F5B-B6BF-426133EB75FC}"/>
+    <hyperlink ref="H25" r:id="rId18" xr:uid="{0F511DF6-55B3-4F3B-89D4-4AF03088CA6B}"/>
+    <hyperlink ref="H26" r:id="rId19" xr:uid="{8EEE0F7F-B306-4F01-94E9-75FDFB04C726}"/>
+    <hyperlink ref="H27" r:id="rId20" xr:uid="{5A57A270-510D-40EB-BFF3-819CBECB3501}"/>
+    <hyperlink ref="N2" r:id="rId21" xr:uid="{9A6B1880-CDF5-42D9-A0F2-5656716A4095}"/>
+    <hyperlink ref="N3:N36" r:id="rId22" display="https://data.worldbank.org/indicator/NY.GNP.PCAP.KN?locations=ZW" xr:uid="{5E325D1E-3F02-497F-8A10-F901F4ACAFB6}"/>
+    <hyperlink ref="W2" r:id="rId23" xr:uid="{D5A7BB3F-2C9C-4BC6-9FBB-C48FE4C3F2EE}"/>
+    <hyperlink ref="W3" r:id="rId24" xr:uid="{D502556B-1BFB-4174-A387-C02BEC6B8A43}"/>
+    <hyperlink ref="W4" r:id="rId25" xr:uid="{C46493E4-2F05-4851-849C-3E9A5A00DEE8}"/>
+    <hyperlink ref="W6" r:id="rId26" xr:uid="{EEC455DA-0712-47A7-B265-C3C81D3D15FA}"/>
+    <hyperlink ref="W8" r:id="rId27" xr:uid="{E12A8311-9097-4531-BF27-3E6388817E38}"/>
+    <hyperlink ref="W10" r:id="rId28" xr:uid="{7ACADCED-E3C2-45BC-B444-520898554143}"/>
+    <hyperlink ref="W12" r:id="rId29" xr:uid="{E10F9D78-6885-49A8-A019-68CE2B48984C}"/>
+    <hyperlink ref="W14" r:id="rId30" xr:uid="{E8F4C283-578A-4DB7-AF93-4833B3E6BF24}"/>
+    <hyperlink ref="W16" r:id="rId31" xr:uid="{5E8041FC-1960-4537-8843-9D073375D3D4}"/>
+    <hyperlink ref="W18" r:id="rId32" xr:uid="{01DB8899-5F5E-4389-9DF8-2530FF488EB8}"/>
+    <hyperlink ref="W20" r:id="rId33" xr:uid="{35182ED0-AE40-4C52-BE5F-A1EC7ECBD5A1}"/>
+    <hyperlink ref="W22" r:id="rId34" xr:uid="{DAB9A1B3-8166-4ED5-B553-23FE907A55C5}"/>
+    <hyperlink ref="W24" r:id="rId35" xr:uid="{72C444EA-09E2-4940-8C47-40FC43B7D008}"/>
+    <hyperlink ref="W26" r:id="rId36" xr:uid="{10C81D2D-9887-4122-B117-451D87EB91A1}"/>
+    <hyperlink ref="W28" r:id="rId37" xr:uid="{3CD4569F-D195-4F8A-B8BD-186B7ED1CFD2}"/>
+    <hyperlink ref="W30" r:id="rId38" xr:uid="{E18AEC58-5AD1-4374-B876-E86F736078D8}"/>
+    <hyperlink ref="W32" r:id="rId39" xr:uid="{FAAEB2CC-01E8-4F96-87F1-ECB15FC44EE2}"/>
+    <hyperlink ref="W34" r:id="rId40" xr:uid="{4C306D6C-7809-4582-9035-2C66FC3EB7E1}"/>
+    <hyperlink ref="W36" r:id="rId41" xr:uid="{7C689125-8DD9-4129-91BA-FA9D6737D990}"/>
+    <hyperlink ref="W5" r:id="rId42" xr:uid="{630B6D23-07D7-48FC-B3F4-F46176C29FC8}"/>
+    <hyperlink ref="W7" r:id="rId43" xr:uid="{1E5531C0-F05A-48B7-B0BA-3F11C97A44C1}"/>
+    <hyperlink ref="W9" r:id="rId44" xr:uid="{655D3A5B-98B0-472E-BD94-CC4BBA687184}"/>
+    <hyperlink ref="W11" r:id="rId45" xr:uid="{D5A41990-AC8D-4B3D-A773-7FBBC99E37B3}"/>
+    <hyperlink ref="W13" r:id="rId46" xr:uid="{2DCB4906-D67A-4ADF-BFD7-B86424CB4F16}"/>
+    <hyperlink ref="W15" r:id="rId47" xr:uid="{5B4A345C-29ED-44C4-973F-B850CABD1BB3}"/>
+    <hyperlink ref="W17" r:id="rId48" xr:uid="{24220FC2-6BE0-48FF-9787-33F594015130}"/>
+    <hyperlink ref="W19" r:id="rId49" xr:uid="{4BDC5DE7-08E2-444C-BAED-B45D9F7B0B52}"/>
+    <hyperlink ref="W21" r:id="rId50" xr:uid="{B1706383-DFB4-4804-B462-99E9462BC330}"/>
+    <hyperlink ref="W23" r:id="rId51" xr:uid="{7AA3BC09-42FB-4226-A566-174155958EF3}"/>
+    <hyperlink ref="W25" r:id="rId52" xr:uid="{D216F0E7-1A32-4C6E-809C-1C3CBACEFA31}"/>
+    <hyperlink ref="W27" r:id="rId53" xr:uid="{26AB0DFD-3269-4132-8929-C25D7F839389}"/>
+    <hyperlink ref="W29" r:id="rId54" xr:uid="{F93F589E-ED59-430F-80B8-D265A66AC6EB}"/>
+    <hyperlink ref="W31" r:id="rId55" xr:uid="{0E24EEF8-2022-44BB-BF82-E1A7B338A053}"/>
+    <hyperlink ref="W33" r:id="rId56" xr:uid="{D8BA0E1C-398A-4199-8A2A-CA9D004E51DE}"/>
+    <hyperlink ref="W35" r:id="rId57" xr:uid="{44A9BFB6-EFDB-4601-98DA-472E81A9C94F}"/>
+    <hyperlink ref="H20" r:id="rId58" xr:uid="{E94AE05A-41B9-40E1-879C-FFFA09669A46}"/>
+    <hyperlink ref="H21" r:id="rId59" xr:uid="{BB8BA70B-D8E6-4D3D-8D98-12E59783563F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId60"/>
 </worksheet>
 </file>
 
@@ -19714,7 +19749,7 @@
   <dimension ref="A1:W145"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:W2"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
